--- a/result.xlsx
+++ b/result.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FFF00"/>
+        <bgColor rgb="007FFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -52,9 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,156 +460,2236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ap/map3.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-1.in</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 4 9800 0 0 0 0 0 0', 'out': 'Q 4 9600 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ap/map4.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-2.in</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.089</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 4 9800 0 0 0 0 0 0', 'out': 'Q 4 9600 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ap/map5.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-3.in</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.025</v>
+        <v>0.091</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 4 9800 0 0 0 0 0 0', 'out': 'Q 4 9600 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ap/map6.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-4.in</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.082</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 1 9800 0 0 0 0 0 0', 'out': 'Q 1 9600 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ap/map7.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-5.in</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.066</v>
+        <v>0.096</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 48 9700 0 0 0 0 0 0', 'out': 'Q 48 9400 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ap/map8.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-6.in</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.078</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 27 9800 0 0 0 0 0 0', 'out': 'Q 27 9600 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ap/map9.in</t>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-7.in</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.076</v>
+        <v>0.099</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[{'ans': 'Q 34 9500 0 0 0 0 0 0', 'out': 'Q 34 9000 0 0 0 0 0 0'}]</t>
+          <t>[{}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-8.in</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter Gift House/NO1-9.in</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter Gift House/NO2-1.in</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter Gift House/NO2-2.in</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'Q 1 10500 0 0 0 0 0 0', 'out1': 'Q 1 10750 0 0 0 0 0 0', 'ans2': 'A 34 9500 0 0 0 0 0 0', 'out2': 'A 34 9250 0 0 0 0 0 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO1-1.in</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO1-2.in</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO1-3.in</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO2-1.in</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO3-1.in</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO4-1.in</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO5-1.in</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'building 30 3 Q 0', 'out1': 'building 50 0 Q 0', 'ans2': 'Q 30 5000 0 0 0 0 0 0', 'out2': 'Q 50 5000 0 0 0 0 0 0', 'ans3': 'A 0 10000 0 0 0 0 0 0', 'out3': ' 0 0 0 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO6-1.in</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter My House/NO6-2.in</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/1.in</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/10.in</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/11.in</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'A 28 10000 50 0 0 7 3 0', 'out1': ' 0 6 4 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/12.in</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/13.in</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'A 28 10000 50 0 0 10 0 0', 'out1': ' 0 8 2 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/2.in</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'A 28 10000 30 0 0 0 0 0', 'out1': '0 8 2 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/3.in</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'A 28 10000 30 0 0 3 7 0', 'out1': '0 8 2 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/4.in</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'A 28 10000 49 0 0 0 0 0', 'out1': '0 8 2 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/5.in</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter dollhouse/6.in</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[{'ans1': 'A 28 10000 30 0 0 5 5 0', 'out1': ' 0 4 6 0'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/1.1.in</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/1.2.in</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/1.3.in</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/2.1.in</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/2.2.in</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/2.3.in</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/3.in</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Enter empty places/4.in</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.0.1.in</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.0.2.in</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.0.3.in</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.1.1.in</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.1.2.in</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.1.3.in</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.2.1.in</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.2.2.in</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.2.3.in</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.3.1.in</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.3.2.in</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/1.3.3.in</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_dollhouse.in</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_emptyplace.in</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_gifthouse.in</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_magichouse.in</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_mineground.in</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_others.in</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/Sell your ground/2_park.in</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/barrier.in</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/building.in</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/buildingtool.in</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/god.in</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/pos.in</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/robot.in</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/seq.in</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/base/seq1.in</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/character/case_1.in</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/character/case_2.in</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/character/case_3.in</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/character/case_4.in</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/character/case_5.in</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/character/case_6.in</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/credit/case-2.in</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/credit/case-3.in</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/credit/case-4.in</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/credit/case-5.in</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/credit/case-6.in</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/magic house/case1.in</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/magic house/case2.in</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/magic house/case3.in</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/magic house/case4.in</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map3.in</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map4.in</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map5.in</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map6.in</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map7.in</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map8.in</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/map/map9.in</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case1.in</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case10.in</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case11.in</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case12.in</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case13.in</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case14.in</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case15.in</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case6.in</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case7.in</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case8.in</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/pay rent/case9.in</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 1.in</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 10.in</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 11.in</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 12.in</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 13.in</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 2.in</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 3.in</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 4.in</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 5.in</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 6.in</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 7.in</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 8.in</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>testcase/testcase_g2/tool-use/case 9.in</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[{}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>alltest</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0/7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1.5</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>103/111</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>15.976</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007FFF00"/>
-        <bgColor rgb="007FFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="007FFF00"/>
+        <bgColor rgb="007FFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,776 +460,776 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-1.in</t>
+          <t>testcase/testcase_g1/Mine/Mine1.in</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.119</v>
+        <v>1.024</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 0 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 64 10000 60 0 0 0 0 0', 'out3': ' 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-2.in</t>
+          <t>testcase/testcase_g1/Mine/Mine2.in</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08699999999999999</v>
+        <v>1.035</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 0 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 65 10000 80 0 0 0 0 0', 'out3': '0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-3.in</t>
+          <t>testcase/testcase_g1/Mine/Mine3.in</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.091</v>
+        <v>1.017</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 0 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 66 10000 40 0 0 0 0 0', 'out3': '0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-4.in</t>
+          <t>testcase/testcase_g1/Mine/Mine4.in</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08699999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 0 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 67 10000 100 0 0 0 0 0', 'out3': '0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-5.in</t>
+          <t>testcase/testcase_g1/Mine/Mine5.in</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.096</v>
+        <v>1.024</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 0 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 68 10000 80 0 0 0 0 0', 'out3': '0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-6.in</t>
+          <t>testcase/testcase_g1/Mine/Mine6.in</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.08799999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 0 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 69 10000 120 0 0 0 0 0', 'out3': '0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-7.in</t>
+          <t>testcase/testcase_g1/Mine/Mine7.in</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.099</v>
+        <v>1.022</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JA', 'out1': 'seq SQ', 'ans2': 'J 4 10000 0 0 0 0 0 0', 'out2': 'building 36 0 Q 0', 'ans3': 'A 66 10000 100 0 0 0 0 0', 'out3': '0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-8.in</t>
+          <t>testcase/testcase_g1/Sell/Sell01.in</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.105</v>
+        <v>0.116</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2400 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO1-9.in</t>
+          <t>testcase/testcase_g1/Sell/Sell02.in</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2800 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO2-1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell03.in</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.099</v>
+        <v>0.129</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 3200 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter Gift House/NO2-2.in</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/Sell/Sell04.in</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.112</v>
+        <v>0.122</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[{'ans1': 'Q 1 10500 0 0 0 0 0 0', 'out1': 'Q 1 10750 0 0 0 0 0 0', 'ans2': 'A 34 9500 0 0 0 0 0 0', 'out2': 'A 34 9250 0 0 0 0 0 0'}]</t>
+          <t>[{'ans1': 'A 0 3600 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO1-1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell05.in</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 3000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO1-2.in</t>
+          <t>testcase/testcase_g1/Sell/Sell06.in</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.094</v>
+        <v>0.107</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 4000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO1-3.in</t>
+          <t>testcase/testcase_g1/Sell/Sell07.in</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 5000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO2-1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell08.in</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.102</v>
+        <v>0.093</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 6000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO3-1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell09.in</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.059</v>
+        <v>0.11</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2600 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO4-1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell10.in</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.09</v>
+        <v>0.129</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 3200 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO5-1.in</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/Sell/Sell11.in</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.036</v>
+        <v>0.118</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[{'ans1': 'building 30 3 Q 0', 'out1': 'building 50 0 Q 0', 'ans2': 'Q 30 5000 0 0 0 0 0 0', 'out2': 'Q 50 5000 0 0 0 0 0 0', 'ans3': 'A 0 10000 0 0 0 0 0 0', 'out3': ' 0 0 0 0'}]</t>
+          <t>[{'ans1': 'A 0 3800 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO6-1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell12.in</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 4400 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter My House/NO6-2.in</t>
+          <t>testcase/testcase_g1/Sell/Sell13.in</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.104</v>
+        <v>0.089</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/1.in</t>
+          <t>testcase/testcase_g1/Sell/Sell14.in</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.068</v>
+        <v>0.113</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/10.in</t>
+          <t>testcase/testcase_g1/Sell/Sell15.in</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/11.in</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/Sell/Sell16.in</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.017</v>
+        <v>0.099</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[{'ans1': 'A 28 10000 50 0 0 7 3 0', 'out1': ' 0 6 4 0'}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/12.in</t>
+          <t>testcase/testcase_g1/Sell/Sell17.in</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/13.in</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/Sell/Sell18.in</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.019</v>
+        <v>0.074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[{'ans1': 'A 28 10000 50 0 0 10 0 0', 'out1': ' 0 8 2 0'}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/2.in</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/Sell/Sell19.in</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.012</v>
+        <v>0.09</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[{'ans1': 'A 28 10000 30 0 0 0 0 0', 'out1': '0 8 2 0'}]</t>
+          <t>[{'ans1': 'A 0 2000 0 0 0 0 0 0', 'out1': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/3.in</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/Sell/Sell20.in</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.015</v>
+        <v>0.111</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[{'ans1': 'A 28 10000 30 0 0 3 7 0', 'out1': '0 8 2 0'}]</t>
+          <t>[{'ans1': 'seq AJ', 'out1': 'J 0 10000 0 0 0 0 0 0', 'ans2': 'building 1 0 J 0', 'out2': 'A 0 10000 0 0 0 0 0 0', 'ans3': 'J 0 10000 0 0 0 0 0 0', 'out3': '3;0;0t', 'ans4': 'A 0 2000 0 0 0 0 0 0', 'out4': '\x1b[?1l\x1b&gt;seq AJ'}]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/4.in</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/empty/empty_1.in</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.016</v>
+        <v>0.114</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[{'ans1': 'A 28 10000 49 0 0 0 0 0', 'out1': '0 8 2 0'}]</t>
+          <t>[{'ans1': 'seq SQ', 'out1': 'seq QS', 'ans2': 'Q 1 199 0 0 0 0 0 0', 'out2': 'Q 0 199 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/5.in</t>
+          <t>testcase/testcase_g1/empty/empty_2.in</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq SQ', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'building 1 0 Q 0', 'out2': 'Q 0 200 0 0 0 0 0 0', 'ans3': 'S 0 10000 0 0 0 0 0 0', 'out3': '3;0;0t', 'ans4': 'Q 1 0 0 0 0 0 0 0', 'out4': '\x1b[?1l\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter dollhouse/6.in</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+          <t>testcase/testcase_g1/empty/empty_3.in</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.027</v>
+        <v>0.108</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[{'ans1': 'A 28 10000 30 0 0 5 5 0', 'out1': ' 0 4 6 0'}]</t>
+          <t>[{'ans1': 'seq SQ', 'out1': 'seq QS', 'ans2': 'Q 29 499 0 0 0 0 0 0', 'out2': 'Q 28 499 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/1.1.in</t>
+          <t>testcase/testcase_g1/empty/empty_4.in</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.077</v>
+        <v>0.114</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq SQ', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'building 29 0 Q 0', 'out2': 'Q 28 500 0 0 0 0 0 0', 'ans3': 'S 0 10000 0 0 0 0 0 0', 'out3': '3;0;0t', 'ans4': 'Q 29 0 0 0 0 0 0 0', 'out4': '\x1b[?1l\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/1.2.in</t>
+          <t>testcase/testcase_g1/empty/empty_5.in</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq SQ', 'out1': 'seq QS', 'ans2': 'Q 36 299 0 0 0 0 0 0', 'out2': 'Q 35 299 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/1.3.in</t>
+          <t>testcase/testcase_g1/empty/empty_6.in</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.095</v>
+        <v>0.089</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq SQ', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'building 36 0 Q 0', 'out2': 'Q 35 300 0 0 0 0 0 0', 'ans3': 'S 0 10000 0 0 0 0 0 0', 'out3': '3;0;0t', 'ans4': 'Q 36 0 0 0 0 0 0 0', 'out4': '\x1b[?1l\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/2.1.in</t>
+          <t>testcase/testcase_g1/gifttest/1.in</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.081</v>
+        <v>1.028</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq SAJQ', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'S 0 10000 0 0 0 0 0 0', 'out2': 'Q 35 300 0 0 0 0 0 0', 'ans3': 'Q 35 10000 100 0 0 0 0 0', 'out3': '3;0;0t', 'ans4': 'J 0 10000 0 0 0 0 0 0', 'out4': '\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/2.2.in</t>
+          <t>testcase/testcase_g1/gifttest/10.in</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.089</v>
+        <v>1.024</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JQSA', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'S 35 6100 100 0 0 0 0 0', 'out2': 'Q 35 300 0 0 0 0 0 0', 'ans3': 'Q 35 7000 50 0 0 3 1 2', 'out3': '3;0;0t', 'ans4': 'J 33 3000 0 0 0 0 0 0', 'out4': '\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/2.3.in</t>
+          <t>testcase/testcase_g1/gifttest/11.in</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.08699999999999999</v>
+        <v>1.032</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JQSA', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'S 35 6100 100 0 0 0 0 0', 'out2': 'Q 35 300 0 0 0 0 0 0', 'ans3': 'Q 35 7000 50 0 0 3 1 2', 'out3': '3;0;0t', 'ans4': 'J 33 3000 0 0 0 0 0 0', 'out4': '\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/3.in</t>
+          <t>testcase/testcase_g1/gifttest/12.in</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1</v>
+        <v>1.016</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JQSA', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'S 35 6100 100 0 0 0 0 0', 'out2': 'Q 35 300 0 0 0 0 0 0', 'ans3': 'Q 35 7000 50 0 0 3 1 2', 'out3': '3;0;0t', 'ans4': 'J 33 3000 0 0 0 0 0 0', 'out4': '\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Enter empty places/4.in</t>
+          <t>testcase/testcase_g1/gifttest/13.in</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.077</v>
+        <v>1.015</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JQSA', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'S 35 4100 300 0 0 0 0 0', 'out2': 'Q 35 300 0 0 0 0 0 0', 'ans3': 'Q 35 7000 50 0 0 3 1 2', 'out3': '3;0;0t', 'ans4': 'J 33 3000 0 0 0 0 0 0', 'out4': '\x1b&gt;seq QS'}]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.0.1.in</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/gifttest/2.in</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.098</v>
+        <v>0.108</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1240,16 +1240,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.0.2.in</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/gifttest/3.in</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1</v>
+        <v>0.175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1260,76 +1260,76 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.0.3.in</t>
+          <t>testcase/testcase_g1/gifttest/4.in</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.103</v>
+        <v>1.018</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq QS', 'out1': 'seq SAJQ', 'ans2': 'S 35 8000 100 0 0 0 0 0', 'out2': 'S 0 10000 0 0 0 0 0 0', 'ans3': 'Q 35 10000 100 0 0 0 0 0', 'out3': ' 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.1.1.in</t>
+          <t>testcase/testcase_g1/gifttest/5.in</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.097</v>
+        <v>0.268</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq AJQS', 'out1': 'seq SAJQ', 'ans2': 'S 35 6000 300 0 0 0 0 0', 'out2': 'S 0 10000 0 0 0 0 0 0', 'ans3': 'A 32 10000 100 0 0 0 0 0', 'out3': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.1.2.in</t>
+          <t>testcase/testcase_g1/magicroom/1.in</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'S 12 8000 45 0 0 0 0 0', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'J 30 10000 0 0 0 0 0 0', 'out2': 'J 0 10000 0 0 0 0 0 0', 'ans3': 'A 28 10000 20 0 0 0 0 0', 'out3': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.1.3.in</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/magicroom/10.in</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.11</v>
+        <v>0.133</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1340,156 +1340,156 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.2.1.in</t>
+          <t>testcase/testcase_g1/magicroom/11.in</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.112</v>
+        <v>0.079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq SAJQ', 'out1': 'seq QSAJ', 'ans2': 'Q 63 10000 0 0 0 0 0 0', 'out2': 'Q 0 10000 0 0 0 0 0 0', 'ans3': 'A 65 10000 0 2 0 0 0 0', 'out3': 'A 65 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.2.2.in</t>
+          <t>testcase/testcase_g1/magicroom/12.in</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.118</v>
+        <v>0.185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'seq JQSA', 'out1': '[23;0;0t', 'ans2': 'building 6 2 S 0', 'out2': 'S 2 10000 100 0 0 0 0 0', 'ans3': 'S 2 10300 100 0 0 0 0 0', 'out3': 'Q 63 10000 100 0 0 0 0 0', 'ans4': 'Q 63 10000 100 0 0 0 0 0', 'out4': 'J 0 10000 100 0 0 0 0 0', 'ans5': 'J 49 10000 100 0 0 0 0 0', 'out5': 'A 0 10000 100 1 0 0 0 0', 'ans6': 'A 6 9700 100 1 0 0 0 0', 'out6': '\x1b[?1l\x1b&gt;seq JQSA'}]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.2.3.in</t>
+          <t>testcase/testcase_g1/magicroom/13.in</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'J 14 10000 0 0 0 0 0 0', 'out1': 'J 0 10000 0 0 0 0 0 0', 'ans2': 'A 63 10000 0 2 0 0 0 0', 'out2': 'A 0 10000 0 2 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.3.1.in</t>
+          <t>testcase/testcase_g1/magicroom/2.in</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.121</v>
+        <v>0.164</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'S 12 8000 45 0 0 0 0 0', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'J 30 10000 5 0 0 0 0 0', 'out2': 'J 0 10000 0 0 0 0 0 0', 'ans3': 'A 28 10000 20 0 0 0 0 0', 'out3': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.3.2.in</t>
+          <t>testcase/testcase_g1/magicroom/3.in</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.094</v>
+        <v>0.172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'S 20 8000 45 2 0 0 0 0', 'out1': 'S 0 10000 0 1 0 0 0 0', 'ans2': 'J 30 10000 5 0 0 0 0 0', 'out2': 'J 0 10000 0 0 0 0 0 0', 'ans3': 'A 28 10000 20 0 0 0 0 0', 'out3': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/1.3.3.in</t>
+          <t>testcase/testcase_g1/magicroom/4.in</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.094</v>
+        <v>0.223</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'S 20 10000 7 0 0 0 0 0', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'J 30 10000 1 0 0 0 0 0', 'out2': 'J 0 10000 0 0 0 0 0 0', 'ans3': 'A 28 10000 10 4 0 0 0 0', 'out3': 'A 0 10000 0 2 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_dollhouse.in</t>
+          <t>testcase/testcase_g1/magicroom/5.in</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.092</v>
+        <v>0.233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'S 20 10000 7 0 0 0 0 0', 'out1': 'S 0 10000 0 0 0 0 0 0', 'ans2': 'J 30 200 2 3 0 0 0 0', 'out2': 'J 0 10000 0 2 0 0 0 0', 'ans3': 'A 28 3200 3 2 0 0 0 0', 'out3': 'A 0 10000 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_emptyplace.in</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/magicroom/6.in</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.116</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1500,16 +1500,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_gifthouse.in</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/magicroom/7.in</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.133</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1520,16 +1520,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_magichouse.in</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/magicroom/8.in</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.077</v>
+        <v>0.145</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1540,16 +1540,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_mineground.in</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/magicroom/9.in</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1560,16 +1560,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_others.in</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_1.in</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.077</v>
+        <v>0.101</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1580,16 +1580,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/Sell your ground/2_park.in</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_10.in</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.083</v>
+        <v>0.119</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1600,16 +1600,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/barrier.in</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_11.in</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.065</v>
+        <v>0.123</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/building.in</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_12.in</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.066</v>
+        <v>0.12</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/buildingtool.in</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_13.in</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.075</v>
+        <v>0.107</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1660,56 +1660,56 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/god.in</t>
+          <t>testcase/testcase_g1/private/private_14.in</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'building 2 2 Q 0', 'out1': 'building 2 1 Q 0', 'ans2': 'Q 2 0 0 0 0 0 0 0', 'out2': 'Q 2 200 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/pos.in</t>
+          <t>testcase/testcase_g1/private/private_15.in</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.075</v>
+        <v>0.116</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'building 2 3 Q 0', 'out1': 'building 2 2 Q 0', 'ans2': 'Q 2 0 0 0 0 0 0 0', 'out2': 'Q 2 200 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/robot.in</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_16.in</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.054</v>
+        <v>0.108</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1720,16 +1720,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/seq.in</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_17.in</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1740,56 +1740,56 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/base/seq1.in</t>
+          <t>testcase/testcase_g1/private/private_18.in</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'building 29 2 Q 0', 'out1': 'building 29 1 Q 0', 'ans2': 'Q 29 0 0 0 0 0 0 0', 'out2': 'Q 29 500 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/character/case_1.in</t>
+          <t>testcase/testcase_g1/private/private_19.in</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.049</v>
+        <v>0.136</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'building 29 3 Q 0', 'out1': 'building 29 2 Q 0', 'ans2': 'Q 29 0 0 0 0 0 0 0', 'out2': 'Q 29 500 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/character/case_2.in</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_2.in</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.066</v>
+        <v>0.127</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1800,16 +1800,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/character/case_3.in</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_20.in</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.06</v>
+        <v>0.101</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1820,16 +1820,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/character/case_4.in</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_21.in</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1840,56 +1840,56 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/character/case_5.in</t>
+          <t>testcase/testcase_g1/private/private_22.in</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.05</v>
+        <v>0.137</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'building 36 2 Q 0', 'out1': 'building 36 1 Q 0', 'ans2': 'Q 36 0 0 0 0 0 0 0', 'out2': 'Q 36 300 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/character/case_6.in</t>
+          <t>testcase/testcase_g1/private/private_23.in</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.06</v>
+        <v>0.109</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[{}]</t>
+          <t>[{'ans1': 'building 36 3 Q 0', 'out1': 'building 36 2 Q 0', 'ans2': 'Q 36 0 0 0 0 0 0 0', 'out2': 'Q 36 300 0 0 0 0 0 0'}]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/credit/case-2.in</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_24.in</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.08</v>
+        <v>0.125</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1900,16 +1900,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/credit/case-3.in</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_3.in</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1920,16 +1920,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/credit/case-4.in</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_4.in</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.077</v>
+        <v>0.09</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/credit/case-5.in</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_5.in</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.08</v>
+        <v>0.097</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1960,16 +1960,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/credit/case-6.in</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_6.in</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.091</v>
+        <v>0.079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1980,16 +1980,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/magic house/case1.in</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_7.in</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.051</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2000,16 +2000,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/magic house/case2.in</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_8.in</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2020,16 +2020,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/magic house/case3.in</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
+          <t>testcase/testcase_g1/private/private_9.in</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.077</v>
+        <v>0.121</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2040,656 +2040,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>testcase/testcase_g2/magic house/case4.in</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>alltest</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>25/79</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map3.in</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map4.in</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map5.in</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map6.in</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map7.in</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map8.in</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/map/map9.in</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case1.in</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case10.in</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case11.in</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case12.in</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case13.in</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case14.in</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case15.in</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case6.in</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case7.in</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case8.in</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/pay rent/case9.in</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 1.in</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 10.in</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 11.in</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 12.in</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 13.in</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 2.in</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 3.in</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 4.in</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 5.in</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 6.in</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 7.in</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 8.in</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>testcase/testcase_g2/tool-use/case 9.in</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>[{}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>alltest</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>103/111</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>15.976</v>
+        <v>21.297</v>
       </c>
     </row>
   </sheetData>
